--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t>时间</t>
   </si>
@@ -155,6 +155,15 @@
     <t>2295</t>
   </si>
   <si>
+    <t>3015.26</t>
+  </si>
+  <si>
+    <t>-0.94</t>
+  </si>
+  <si>
+    <t>2186</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
@@ -212,6 +221,9 @@
     <t>-7.56/48.87/42.73</t>
   </si>
   <si>
+    <t>-9.61/44.18/35.92</t>
+  </si>
+  <si>
     <t>卓胜微（300782）</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
     <t>10/73.23/1.22</t>
   </si>
   <si>
+    <t>10/80.56/64.79</t>
+  </si>
+  <si>
     <t>西麦食品（002956）</t>
   </si>
   <si>
@@ -278,6 +293,9 @@
     <t>-0.48/37.38/26.28</t>
   </si>
   <si>
+    <t>3.95/38.85/42.38</t>
+  </si>
+  <si>
     <t>元利科技（603217）</t>
   </si>
   <si>
@@ -308,6 +326,9 @@
     <t>-1.99/25.22/15.34</t>
   </si>
   <si>
+    <t>-2.6/24.57/13.26</t>
+  </si>
+  <si>
     <t>松炀资源（603863）</t>
   </si>
   <si>
@@ -338,6 +359,9 @@
     <t>10/60.59/42.42</t>
   </si>
   <si>
+    <t>1.65/61.59/71.75</t>
+  </si>
+  <si>
     <t>朗进科技（300594）</t>
   </si>
   <si>
@@ -365,6 +389,9 @@
     <t>-3.11/54.16/60.75</t>
   </si>
   <si>
+    <t>-5.91/50.96/39.60</t>
+  </si>
+  <si>
     <t>海油发展（600968）</t>
   </si>
   <si>
@@ -386,6 +413,9 @@
     <t>9.97/40.43/3.4</t>
   </si>
   <si>
+    <t>6.98/43.25/62.53</t>
+  </si>
+  <si>
     <t>新化股份（603867）</t>
   </si>
   <si>
@@ -401,7 +431,25 @@
     <t>10/25.05/0.32</t>
   </si>
   <si>
+    <t>9.99/27.55/0.74</t>
+  </si>
+  <si>
     <t>中国卫通（601698）</t>
+  </si>
+  <si>
+    <t>电信</t>
+  </si>
+  <si>
+    <t>44.12</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t>9.92/49.83/0.1</t>
   </si>
   <si>
     <t>红塔证券（601236）6.24</t>
@@ -433,17 +481,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -454,14 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -498,16 +546,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,31 +578,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,7 +608,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -580,22 +644,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -606,85 +654,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,19 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,73 +834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,6 +845,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,7 +902,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,65 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,16 +965,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,115 +983,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,7 +1450,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1672,9 +1720,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4">
       <c r="A27" s="6">
         <v>43649</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1707,9 +1764,9 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T11" sqref="T11"/>
+      <selection pane="topRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1731,7 +1788,8 @@
     <col min="15" max="15" width="20.1416666666667" style="3" customWidth="1"/>
     <col min="16" max="16" width="22.2083333333333" style="3" customWidth="1"/>
     <col min="17" max="17" width="19.25" style="3" customWidth="1"/>
-    <col min="18" max="34" width="9" style="3"/>
+    <col min="18" max="18" width="25.5" style="3" customWidth="1"/>
+    <col min="19" max="34" width="9" style="3"/>
     <col min="35" max="36" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1740,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -1844,10 +1902,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -1865,7 +1923,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -1948,10 +2006,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -2052,10 +2110,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -2151,15 +2209,15 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -2183,304 +2241,343 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>75</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>87</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>98</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>109</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
@@ -2488,7 +2585,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
@@ -2496,15 +2593,15 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -2512,7 +2609,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -2520,7 +2617,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -2528,7 +2625,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
   <si>
     <t>时间</t>
   </si>
@@ -164,6 +164,15 @@
     <t>2186</t>
   </si>
   <si>
+    <t>3005.25</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
     <t>-9.61/44.18/35.92</t>
   </si>
   <si>
+    <t>0.29/44.3/17.06</t>
+  </si>
+  <si>
     <t>卓胜微（300782）</t>
   </si>
   <si>
@@ -260,6 +272,9 @@
     <t>10/80.56/64.79</t>
   </si>
   <si>
+    <t>10/88.62/44.53</t>
+  </si>
+  <si>
     <t>西麦食品（002956）</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
     <t>3.95/38.85/42.38</t>
   </si>
   <si>
+    <t>-7.35/35.99/24.54</t>
+  </si>
+  <si>
     <t>元利科技（603217）</t>
   </si>
   <si>
@@ -329,6 +347,9 @@
     <t>-2.6/24.57/13.26</t>
   </si>
   <si>
+    <t>1.24/24.87/11</t>
+  </si>
+  <si>
     <t>松炀资源（603863）</t>
   </si>
   <si>
@@ -362,6 +383,9 @@
     <t>1.65/61.59/71.75</t>
   </si>
   <si>
+    <t>4.97/64.65/68.83</t>
+  </si>
+  <si>
     <t>朗进科技（300594）</t>
   </si>
   <si>
@@ -392,6 +416,9 @@
     <t>-5.91/50.96/39.60</t>
   </si>
   <si>
+    <t>1.83/51.89/33.49</t>
+  </si>
+  <si>
     <t>海油发展（600968）</t>
   </si>
   <si>
@@ -416,6 +443,9 @@
     <t>6.98/43.25/62.53</t>
   </si>
   <si>
+    <t>-8.04/39.77/36.48</t>
+  </si>
+  <si>
     <t>新化股份（603867）</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>9.99/27.55/0.74</t>
   </si>
   <si>
+    <t>1.89/28.07/60.5</t>
+  </si>
+  <si>
     <t>中国卫通（601698）</t>
   </si>
   <si>
@@ -452,7 +485,13 @@
     <t>9.92/49.83/0.1</t>
   </si>
   <si>
+    <t>9.98/54.8/0.14</t>
+  </si>
+  <si>
     <t>红塔证券（601236）6.24</t>
+  </si>
+  <si>
+    <t>证券</t>
   </si>
   <si>
     <t>中信出版（300788）6.25</t>
@@ -482,9 +521,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -495,7 +534,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,7 +577,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -540,7 +623,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -549,6 +632,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,60 +668,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,6 +693,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,7 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +777,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,151 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,49 +890,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,8 +923,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,10 +992,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +1004,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,7 +1489,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1734,9 +1773,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28" s="6">
         <v>43650</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -1764,9 +1812,9 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1789,7 +1837,8 @@
     <col min="16" max="16" width="22.2083333333333" style="3" customWidth="1"/>
     <col min="17" max="17" width="19.25" style="3" customWidth="1"/>
     <col min="18" max="18" width="25.5" style="3" customWidth="1"/>
-    <col min="19" max="34" width="9" style="3"/>
+    <col min="19" max="19" width="21.75" style="3" customWidth="1"/>
+    <col min="20" max="34" width="9" style="3"/>
     <col min="35" max="36" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1798,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -1902,10 +1951,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -1923,7 +1972,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -2006,10 +2055,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -2110,10 +2159,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -2209,15 +2258,15 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -2241,343 +2290,373 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>93</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>105</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>117</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>140</v>
+        <v>151</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
@@ -2585,7 +2664,7 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
@@ -2593,15 +2672,15 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -2609,7 +2688,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -2617,7 +2696,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -2625,7 +2704,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$226</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="221">
   <si>
     <t>时间</t>
   </si>
@@ -173,6 +173,48 @@
     <t>2022</t>
   </si>
   <si>
+    <t>3011.06</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>7.22科创板开板</t>
+  </si>
+  <si>
+    <t>7月美联储降息（利好）</t>
+  </si>
+  <si>
+    <t>2933.36</t>
+  </si>
+  <si>
+    <t>-2.58</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>2928.23</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>2915.30</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
@@ -236,6 +278,18 @@
     <t>0.29/44.3/17.06</t>
   </si>
   <si>
+    <t>-1.77/43.52/12.51</t>
+  </si>
+  <si>
+    <t>-7.18/40.39/20.25</t>
+  </si>
+  <si>
+    <t>-0.47/40.20/10.99</t>
+  </si>
+  <si>
+    <t>-2.06/39.37/10.10</t>
+  </si>
+  <si>
     <t>卓胜微（300782）</t>
   </si>
   <si>
@@ -275,6 +329,18 @@
     <t>10/88.62/44.53</t>
   </si>
   <si>
+    <t>10/97.48/3.05</t>
+  </si>
+  <si>
+    <t>5.57/102.91/43.49</t>
+  </si>
+  <si>
+    <t>-2.8/100.02/25.49</t>
+  </si>
+  <si>
+    <t>5.28/105.30/26.38</t>
+  </si>
+  <si>
     <t>西麦食品（002956）</t>
   </si>
   <si>
@@ -314,6 +380,18 @@
     <t>-7.35/35.99/24.54</t>
   </si>
   <si>
+    <t>1.2/36.42/13.91</t>
+  </si>
+  <si>
+    <t>-9.46/32.98/22.99</t>
+  </si>
+  <si>
+    <t>-1.19/32.59/11.88</t>
+  </si>
+  <si>
+    <t>-0.14/32.54/6.77</t>
+  </si>
+  <si>
     <t>元利科技（603217）</t>
   </si>
   <si>
@@ -350,6 +428,18 @@
     <t>1.24/24.87/11</t>
   </si>
   <si>
+    <t>0.47/24.99/8.62</t>
+  </si>
+  <si>
+    <t>-5.66/23.58/13.53</t>
+  </si>
+  <si>
+    <t>0.16/23.61/6.64</t>
+  </si>
+  <si>
+    <t>-0.96/23.39/5.94</t>
+  </si>
+  <si>
     <t>松炀资源（603863）</t>
   </si>
   <si>
@@ -386,6 +476,18 @@
     <t>4.97/64.65/68.83</t>
   </si>
   <si>
+    <t>-1.68/63.56/53.86</t>
+  </si>
+  <si>
+    <t>2.73/65.3/61</t>
+  </si>
+  <si>
+    <t>2.96/67.23/58.19</t>
+  </si>
+  <si>
+    <t>-5.52/63.52/48.9</t>
+  </si>
+  <si>
     <t>朗进科技（300594）</t>
   </si>
   <si>
@@ -419,6 +521,18 @@
     <t>1.83/51.89/33.49</t>
   </si>
   <si>
+    <t>-0.69/51.54/25.15</t>
+  </si>
+  <si>
+    <t>-2.53/50.23/32.01</t>
+  </si>
+  <si>
+    <t>-3.65/48.4/22.01</t>
+  </si>
+  <si>
+    <t>2.71/49.72/31.77</t>
+  </si>
+  <si>
     <t>海油发展（600968）</t>
   </si>
   <si>
@@ -446,6 +560,18 @@
     <t>-8.04/39.77/36.48</t>
   </si>
   <si>
+    <t>-0.47/39.58/26.54</t>
+  </si>
+  <si>
+    <t>2.38/40.52/26.24</t>
+  </si>
+  <si>
+    <t>-3.71/39.02/16.35</t>
+  </si>
+  <si>
+    <t>-1.2/38.55/13.58</t>
+  </si>
+  <si>
     <t>新化股份（603867）</t>
   </si>
   <si>
@@ -467,6 +593,18 @@
     <t>1.89/28.07/60.5</t>
   </si>
   <si>
+    <t>2.06/28.65/46.92</t>
+  </si>
+  <si>
+    <t>3.86/29.76/61.38</t>
+  </si>
+  <si>
+    <t>-0.08/29.73/42.62</t>
+  </si>
+  <si>
+    <t>-3.13/28.8/42.89</t>
+  </si>
+  <si>
     <t>中国卫通（601698）</t>
   </si>
   <si>
@@ -488,13 +626,52 @@
     <t>9.98/54.8/0.14</t>
   </si>
   <si>
+    <t>9.95/60.25/0.23</t>
+  </si>
+  <si>
+    <t>10/66.27/0.36</t>
+  </si>
+  <si>
+    <t>9.96/72.87/0.45</t>
+  </si>
+  <si>
+    <t>9.97/80.14/0.44</t>
+  </si>
+  <si>
     <t>红塔证券（601236）6.24</t>
   </si>
   <si>
     <t>证券</t>
   </si>
   <si>
+    <t>43.93/46.82/0.07</t>
+  </si>
+  <si>
+    <t>10.04/51.52/0.05</t>
+  </si>
+  <si>
+    <t>10.04/56.69/0.06</t>
+  </si>
+  <si>
+    <t>9.95/62.33/0.14</t>
+  </si>
+  <si>
     <t>中信出版（300788）6.25</t>
+  </si>
+  <si>
+    <t>新闻和出版业</t>
+  </si>
+  <si>
+    <t>21.38</t>
+  </si>
+  <si>
+    <t>23.52/21.64/0.06</t>
+  </si>
+  <si>
+    <t>9.99/23.80/0.08</t>
+  </si>
+  <si>
+    <t>10.01/26.18/0.19</t>
   </si>
   <si>
     <t>苏州银行（002966）6.27</t>
@@ -520,24 +697,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -549,6 +719,43 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -570,14 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -593,6 +793,21 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,23 +837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,30 +860,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -693,25 +870,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,67 +912,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,19 +966,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,19 +996,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +1026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,9 +1075,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,41 +1138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -970,17 +1153,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1486,10 +1663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1787,13 +1964,1039 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="6">
-        <v>43651</v>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>43652</v>
+      </c>
+      <c r="G30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>43653</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
+        <v>43654</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <v>43655</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <v>43656</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6">
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6">
+        <v>43702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6">
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6">
+        <v>43707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6">
+        <v>43708</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="6">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6">
+        <v>43714</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6">
+        <v>43715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6">
+        <v>43718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6">
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="6">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="6">
+        <v>43724</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6">
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="6">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="6">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6">
+        <v>43729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6">
+        <v>43731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="6">
+        <v>43732</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6">
+        <v>43733</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6">
+        <v>43734</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="6">
+        <v>43735</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="6">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="6">
+        <v>43737</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="6">
+        <v>43738</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="6">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="6">
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="6">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="6">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="6">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="6">
+        <v>43744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="6">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="6">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="6">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="6">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="6">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="6">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6">
+        <v>43751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="6">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="6">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="6">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="6">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="6">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="6">
+        <v>43757</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="6">
+        <v>43759</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="6">
+        <v>43760</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="6">
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="6">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="6">
+        <v>43763</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="6">
+        <v>43764</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="6">
+        <v>43765</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="6">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="6">
+        <v>43767</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6">
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="6">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="6">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="6">
+        <v>43771</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="6">
+        <v>43773</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="6">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="6">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="6">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="6">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="6">
+        <v>43778</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="6">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="6">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="6">
+        <v>43781</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="6">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="6">
+        <v>43783</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="6">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="6">
+        <v>43785</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="6">
+        <v>43786</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="6">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="6">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="6">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="6">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="6">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="6">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="6">
+        <v>43793</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="6">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="6">
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="6">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="6">
+        <v>43797</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="6">
+        <v>43798</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="6">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="6">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="6">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="6">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="6">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="6">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="6">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="6">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="6">
+        <v>43807</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="6">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="6">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="6">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="6">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="6">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="6">
+        <v>43813</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="6">
+        <v>43814</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="6">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="6">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="6">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="6">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="6">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="6">
+        <v>43820</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="6">
+        <v>43821</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="6">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="6">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="6">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="6">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="6">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="6">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="6">
+        <v>43828</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="6">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="6">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="6">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="6">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="6">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="6">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="6">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="6">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="6">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="6">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="6">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="6">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="6">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="6">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="6">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="6">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="6">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="6">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="6">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="6">
+        <v>43848</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F29">
+  <autoFilter ref="A1:F226">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
@@ -1811,10 +3014,10 @@
   <sheetPr/>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1837,8 +3040,12 @@
     <col min="16" max="16" width="22.2083333333333" style="3" customWidth="1"/>
     <col min="17" max="17" width="19.25" style="3" customWidth="1"/>
     <col min="18" max="18" width="25.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="21.75" style="3" customWidth="1"/>
-    <col min="20" max="34" width="9" style="3"/>
+    <col min="19" max="19" width="22.375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="26" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.7" style="3" customWidth="1"/>
+    <col min="22" max="22" width="26.0333333333333" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.725" style="3" customWidth="1"/>
+    <col min="24" max="34" width="9" style="3"/>
     <col min="35" max="36" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1847,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -1951,10 +3158,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -1972,7 +3179,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -2055,10 +3262,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -2159,10 +3366,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -2258,15 +3465,15 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -2290,397 +3497,538 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>82</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>99</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>132</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>148</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>163</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>176</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>187</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>198</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>43651</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>43651</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>209</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -2688,7 +4036,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -2696,7 +4044,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -2704,7 +4052,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
   <si>
     <t>时间</t>
   </si>
@@ -197,6 +197,9 @@
     <t>2055</t>
   </si>
   <si>
+    <t>降息利好暂未体现</t>
+  </si>
+  <si>
     <t>2928.23</t>
   </si>
   <si>
@@ -213,6 +216,10 @@
   </si>
   <si>
     <t>1412</t>
+  </si>
+  <si>
+    <t>1.中美重启贸易谈判沟通。
+2.国家进一步扩大贸易开放（降低进口税），转部分国有资本充实社保基金。</t>
   </si>
   <si>
     <t>股票</t>
@@ -697,11 +704,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -711,7 +718,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -724,8 +738,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,15 +754,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -769,6 +776,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -777,45 +792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -860,6 +837,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -867,6 +874,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -882,31 +901,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,43 +1033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,37 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,31 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,19 +1074,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,17 +1119,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,26 +1160,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,10 +1176,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1188,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1665,8 +1672,8 @@
   <sheetPr/>
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1993,7 +2000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <v>43654</v>
       </c>
@@ -2005,6 +2012,9 @@
       </c>
       <c r="D32" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2012,27 +2022,30 @@
         <v>43655</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" ht="28.5" spans="1:6">
       <c r="A34" s="6">
         <v>43656</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -3014,10 +3027,10 @@
   <sheetPr/>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+      <selection pane="topRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3054,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3158,10 +3171,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3179,7 +3192,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3262,10 +3275,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3366,10 +3379,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3470,10 +3483,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -3497,43 +3510,43 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -3541,64 +3554,64 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3606,61 +3619,61 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3668,58 +3681,58 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3727,55 +3740,55 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3783,55 +3796,55 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -3839,46 +3852,46 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3886,43 +3899,43 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3930,40 +3943,40 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3971,25 +3984,25 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3997,38 +4010,38 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4036,7 +4049,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4044,7 +4057,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4052,7 +4065,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$226</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="248">
   <si>
     <t>时间</t>
   </si>
@@ -222,6 +222,48 @@
 2.国家进一步扩大贸易开放（降低进口税），转部分国有资本充实社保基金。</t>
   </si>
   <si>
+    <t>2917.76</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1.美联储私房降息信号</t>
+  </si>
+  <si>
+    <t>2930.55</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>换手</t>
+  </si>
+  <si>
+    <t>波向</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>股票</t>
   </si>
   <si>
@@ -297,6 +339,9 @@
     <t>-2.06/39.37/10.10</t>
   </si>
   <si>
+    <t>2.21/39.33/15.32</t>
+  </si>
+  <si>
     <t>卓胜微（300782）</t>
   </si>
   <si>
@@ -348,6 +393,9 @@
     <t>5.28/105.30/26.38</t>
   </si>
   <si>
+    <t>-2.43/102.47/17.63</t>
+  </si>
+  <si>
     <t>西麦食品（002956）</t>
   </si>
   <si>
@@ -399,6 +447,9 @@
     <t>-0.14/32.54/6.77</t>
   </si>
   <si>
+    <t>-1.58/30.62/9.31</t>
+  </si>
+  <si>
     <t>元利科技（603217）</t>
   </si>
   <si>
@@ -447,6 +498,9 @@
     <t>-0.96/23.39/5.94</t>
   </si>
   <si>
+    <t>0.56/23.19/6.10</t>
+  </si>
+  <si>
     <t>松炀资源（603863）</t>
   </si>
   <si>
@@ -495,6 +549,9 @@
     <t>-5.52/63.52/48.9</t>
   </si>
   <si>
+    <t>-2.21/57.71/54.24</t>
+  </si>
+  <si>
     <t>朗进科技（300594）</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>2.71/49.72/31.77</t>
   </si>
   <si>
+    <t>-6.76/44.47/29.23</t>
+  </si>
+  <si>
     <t>海油发展（600968）</t>
   </si>
   <si>
@@ -579,6 +639,9 @@
     <t>-1.2/38.55/13.58</t>
   </si>
   <si>
+    <t>-5.65/36.11/22.12</t>
+  </si>
+  <si>
     <t>新化股份（603867）</t>
   </si>
   <si>
@@ -612,6 +675,9 @@
     <t>-3.13/28.8/42.89</t>
   </si>
   <si>
+    <t>10.01/32.72/53.33</t>
+  </si>
+  <si>
     <t>中国卫通（601698）</t>
   </si>
   <si>
@@ -645,6 +711,9 @@
     <t>9.97/80.14/0.44</t>
   </si>
   <si>
+    <t>9.98/96.97/5.48</t>
+  </si>
+  <si>
     <t>红塔证券（601236）6.24</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>9.95/62.33/0.14</t>
   </si>
   <si>
+    <t>10.01/75.4/0.58</t>
+  </si>
+  <si>
     <t>中信出版（300788）6.25</t>
   </si>
   <si>
@@ -679,6 +751,9 @@
   </si>
   <si>
     <t>10.01/26.18/0.19</t>
+  </si>
+  <si>
+    <t>10/31.68/7.19</t>
   </si>
   <si>
     <t>苏州银行（002966）6.27</t>
@@ -703,12 +778,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -724,8 +800,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -738,8 +830,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -747,7 +846,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -768,9 +881,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -784,15 +913,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -814,53 +937,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -877,25 +953,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,127 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1037,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,15 +1144,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1095,6 +1162,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1106,15 +1197,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,17 +1227,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,153 +1252,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1333,6 +1409,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1672,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1681,7 +1763,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="4" width="12.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="79.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="79.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="24.625" customWidth="1"/>
   </cols>
@@ -1713,10 +1795,10 @@
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>43623</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -1724,7 +1806,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>43624</v>
       </c>
       <c r="I3" t="s">
@@ -1732,7 +1814,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6">
+      <c r="A4" s="8">
         <v>43625</v>
       </c>
       <c r="I4" t="s">
@@ -1740,10 +1822,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>43626</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
@@ -1751,7 +1833,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>43627</v>
       </c>
       <c r="G6" t="s">
@@ -1759,40 +1841,40 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>43628</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>43629</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>43630</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>43631</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>43632</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>43633</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="8">
         <v>43634</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
@@ -1800,18 +1882,18 @@
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="8">
         <v>43635</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6">
+      <c r="A15" s="8">
         <v>43636</v>
       </c>
       <c r="E15" t="s">
@@ -1819,26 +1901,26 @@
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:6">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
         <v>43637</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6">
+      <c r="A17" s="8">
         <v>43638</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>43640</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1849,7 +1931,7 @@
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>43641</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1858,12 +1940,12 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>43642</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1874,18 +1956,18 @@
       </c>
     </row>
     <row r="21" ht="42.75" spans="1:7">
-      <c r="A21" s="6">
+      <c r="A21" s="8">
         <v>43643</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>43644</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1897,26 +1979,26 @@
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>43645</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>43646</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6">
+      <c r="A25" s="8">
         <v>43647</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1930,7 +2012,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>43648</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1944,7 +2026,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
         <v>43649</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1958,7 +2040,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
         <v>43650</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1972,7 +2054,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
@@ -1982,10 +2064,10 @@
       <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>43652</v>
       </c>
       <c r="G30" t="s">
@@ -1993,7 +2075,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
         <v>43653</v>
       </c>
       <c r="G31" t="s">
@@ -2001,7 +2083,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
         <v>43654</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2018,7 +2100,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>43655</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2032,7 +2114,7 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:6">
-      <c r="A34" s="6">
+      <c r="A34" s="8">
         <v>43656</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2044,967 +2126,988 @@
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6">
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
         <v>43657</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6">
+      <c r="B35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8">
         <v>43658</v>
       </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6">
+      <c r="A37" s="8">
         <v>43659</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6">
+      <c r="A38" s="8">
         <v>43660</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6">
+      <c r="A39" s="8">
         <v>43661</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6">
+      <c r="A40" s="8">
         <v>43662</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6">
+      <c r="A41" s="8">
         <v>43663</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6">
+      <c r="A42" s="8">
         <v>43664</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6">
+      <c r="A43" s="8">
         <v>43665</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6">
+      <c r="A44" s="8">
         <v>43666</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6">
+      <c r="A45" s="8">
         <v>43667</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6">
+      <c r="A46" s="8">
         <v>43668</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6">
+      <c r="A47" s="8">
         <v>43669</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="6">
+      <c r="A48" s="8">
         <v>43670</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="6">
+      <c r="A49" s="8">
         <v>43671</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6">
+      <c r="A50" s="8">
         <v>43672</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="6">
+      <c r="A51" s="8">
         <v>43673</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="6">
+      <c r="A52" s="8">
         <v>43674</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="6">
+      <c r="A53" s="8">
         <v>43675</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="6">
+      <c r="A54" s="8">
         <v>43676</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="6">
+      <c r="A55" s="8">
         <v>43677</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="6">
+      <c r="A56" s="8">
         <v>43678</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="6">
+      <c r="A57" s="8">
         <v>43679</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="6">
+      <c r="A58" s="8">
         <v>43680</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="6">
+      <c r="A59" s="8">
         <v>43681</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="6">
+      <c r="A60" s="8">
         <v>43682</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="6">
+      <c r="A61" s="8">
         <v>43683</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="6">
+      <c r="A62" s="8">
         <v>43684</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="6">
+      <c r="A63" s="8">
         <v>43685</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="6">
+      <c r="A64" s="8">
         <v>43686</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="6">
+      <c r="A65" s="8">
         <v>43687</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="6">
+      <c r="A66" s="8">
         <v>43688</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="6">
+      <c r="A67" s="8">
         <v>43689</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="6">
+      <c r="A68" s="8">
         <v>43690</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="6">
+      <c r="A69" s="8">
         <v>43691</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="6">
+      <c r="A70" s="8">
         <v>43692</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="6">
+      <c r="A71" s="8">
         <v>43693</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="6">
+      <c r="A72" s="8">
         <v>43694</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="6">
+      <c r="A73" s="8">
         <v>43695</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="6">
+      <c r="A74" s="8">
         <v>43696</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6">
+      <c r="A75" s="8">
         <v>43697</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="6">
+      <c r="A76" s="8">
         <v>43698</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="6">
+      <c r="A77" s="8">
         <v>43699</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="6">
+      <c r="A78" s="8">
         <v>43700</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6">
+      <c r="A79" s="8">
         <v>43701</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="6">
+      <c r="A80" s="8">
         <v>43702</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="6">
+      <c r="A81" s="8">
         <v>43703</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="6">
+      <c r="A82" s="8">
         <v>43704</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="6">
+      <c r="A83" s="8">
         <v>43705</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="6">
+      <c r="A84" s="8">
         <v>43706</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="6">
+      <c r="A85" s="8">
         <v>43707</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="6">
+      <c r="A86" s="8">
         <v>43708</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6">
+      <c r="A87" s="8">
         <v>43709</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="6">
+      <c r="A88" s="8">
         <v>43710</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="6">
+      <c r="A89" s="8">
         <v>43711</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="6">
+      <c r="A90" s="8">
         <v>43712</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="6">
+      <c r="A91" s="8">
         <v>43713</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="6">
+      <c r="A92" s="8">
         <v>43714</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="6">
+      <c r="A93" s="8">
         <v>43715</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="6">
+      <c r="A94" s="8">
         <v>43716</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="6">
+      <c r="A95" s="8">
         <v>43717</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="6">
+      <c r="A96" s="8">
         <v>43718</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="6">
+      <c r="A97" s="8">
         <v>43719</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="6">
+      <c r="A98" s="8">
         <v>43720</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="6">
+      <c r="A99" s="8">
         <v>43721</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="6">
+      <c r="A100" s="8">
         <v>43722</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="6">
+      <c r="A101" s="8">
         <v>43723</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="6">
+      <c r="A102" s="8">
         <v>43724</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="6">
+      <c r="A103" s="8">
         <v>43725</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="6">
+      <c r="A104" s="8">
         <v>43726</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="6">
+      <c r="A105" s="8">
         <v>43727</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="6">
+      <c r="A106" s="8">
         <v>43728</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="6">
+      <c r="A107" s="8">
         <v>43729</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="6">
+      <c r="A108" s="8">
         <v>43730</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="6">
+      <c r="A109" s="8">
         <v>43731</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="6">
+      <c r="A110" s="8">
         <v>43732</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="6">
+      <c r="A111" s="8">
         <v>43733</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="6">
+      <c r="A112" s="8">
         <v>43734</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="6">
+      <c r="A113" s="8">
         <v>43735</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="6">
+      <c r="A114" s="8">
         <v>43736</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="6">
+      <c r="A115" s="8">
         <v>43737</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="6">
+      <c r="A116" s="8">
         <v>43738</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="6">
+      <c r="A117" s="8">
         <v>43739</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="6">
+      <c r="A118" s="8">
         <v>43740</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="6">
+      <c r="A119" s="8">
         <v>43741</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="6">
+      <c r="A120" s="8">
         <v>43742</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="6">
+      <c r="A121" s="8">
         <v>43743</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="6">
+      <c r="A122" s="8">
         <v>43744</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="6">
+      <c r="A123" s="8">
         <v>43745</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="6">
+      <c r="A124" s="8">
         <v>43746</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="6">
+      <c r="A125" s="8">
         <v>43747</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="6">
+      <c r="A126" s="8">
         <v>43748</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="6">
+      <c r="A127" s="8">
         <v>43749</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="6">
+      <c r="A128" s="8">
         <v>43750</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="6">
+      <c r="A129" s="8">
         <v>43751</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="6">
+      <c r="A130" s="8">
         <v>43752</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="6">
+      <c r="A131" s="8">
         <v>43753</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="6">
+      <c r="A132" s="8">
         <v>43754</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="6">
+      <c r="A133" s="8">
         <v>43755</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="6">
+      <c r="A134" s="8">
         <v>43756</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="6">
+      <c r="A135" s="8">
         <v>43757</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="6">
+      <c r="A136" s="8">
         <v>43758</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="6">
+      <c r="A137" s="8">
         <v>43759</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="6">
+      <c r="A138" s="8">
         <v>43760</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="6">
+      <c r="A139" s="8">
         <v>43761</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="6">
+      <c r="A140" s="8">
         <v>43762</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="6">
+      <c r="A141" s="8">
         <v>43763</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="6">
+      <c r="A142" s="8">
         <v>43764</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="6">
+      <c r="A143" s="8">
         <v>43765</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="6">
+      <c r="A144" s="8">
         <v>43766</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="6">
+      <c r="A145" s="8">
         <v>43767</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="6">
+      <c r="A146" s="8">
         <v>43768</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="6">
+      <c r="A147" s="8">
         <v>43769</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="6">
+      <c r="A148" s="8">
         <v>43770</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="6">
+      <c r="A149" s="8">
         <v>43771</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="6">
+      <c r="A150" s="8">
         <v>43772</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="6">
+      <c r="A151" s="8">
         <v>43773</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="6">
+      <c r="A152" s="8">
         <v>43774</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="6">
+      <c r="A153" s="8">
         <v>43775</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="6">
+      <c r="A154" s="8">
         <v>43776</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="6">
+      <c r="A155" s="8">
         <v>43777</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="6">
+      <c r="A156" s="8">
         <v>43778</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="6">
+      <c r="A157" s="8">
         <v>43779</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="6">
+      <c r="A158" s="8">
         <v>43780</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="6">
+      <c r="A159" s="8">
         <v>43781</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="6">
+      <c r="A160" s="8">
         <v>43782</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="6">
+      <c r="A161" s="8">
         <v>43783</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="6">
+      <c r="A162" s="8">
         <v>43784</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="6">
+      <c r="A163" s="8">
         <v>43785</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="6">
+      <c r="A164" s="8">
         <v>43786</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="6">
+      <c r="A165" s="8">
         <v>43787</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="6">
+      <c r="A166" s="8">
         <v>43788</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="6">
+      <c r="A167" s="8">
         <v>43789</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="6">
+      <c r="A168" s="8">
         <v>43790</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="6">
+      <c r="A169" s="8">
         <v>43791</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="6">
+      <c r="A170" s="8">
         <v>43792</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="6">
+      <c r="A171" s="8">
         <v>43793</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="6">
+      <c r="A172" s="8">
         <v>43794</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="6">
+      <c r="A173" s="8">
         <v>43795</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="6">
+      <c r="A174" s="8">
         <v>43796</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="6">
+      <c r="A175" s="8">
         <v>43797</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="6">
+      <c r="A176" s="8">
         <v>43798</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="6">
+      <c r="A177" s="8">
         <v>43799</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="6">
+      <c r="A178" s="8">
         <v>43800</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="6">
+      <c r="A179" s="8">
         <v>43801</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="6">
+      <c r="A180" s="8">
         <v>43802</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="6">
+      <c r="A181" s="8">
         <v>43803</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="6">
+      <c r="A182" s="8">
         <v>43804</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="6">
+      <c r="A183" s="8">
         <v>43805</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="6">
+      <c r="A184" s="8">
         <v>43806</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="6">
+      <c r="A185" s="8">
         <v>43807</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="6">
+      <c r="A186" s="8">
         <v>43808</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="6">
+      <c r="A187" s="8">
         <v>43809</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="6">
+      <c r="A188" s="8">
         <v>43810</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="6">
+      <c r="A189" s="8">
         <v>43811</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="6">
+      <c r="A190" s="8">
         <v>43812</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="6">
+      <c r="A191" s="8">
         <v>43813</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="6">
+      <c r="A192" s="8">
         <v>43814</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="6">
+      <c r="A193" s="8">
         <v>43815</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="6">
+      <c r="A194" s="8">
         <v>43816</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="6">
+      <c r="A195" s="8">
         <v>43817</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="6">
+      <c r="A196" s="8">
         <v>43818</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="6">
+      <c r="A197" s="8">
         <v>43819</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="6">
+      <c r="A198" s="8">
         <v>43820</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="6">
+      <c r="A199" s="8">
         <v>43821</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="6">
+      <c r="A200" s="8">
         <v>43822</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="6">
+      <c r="A201" s="8">
         <v>43823</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="6">
+      <c r="A202" s="8">
         <v>43824</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="6">
+      <c r="A203" s="8">
         <v>43825</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="6">
+      <c r="A204" s="8">
         <v>43826</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="6">
+      <c r="A205" s="8">
         <v>43827</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="6">
+      <c r="A206" s="8">
         <v>43828</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="6">
+      <c r="A207" s="8">
         <v>43829</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="6">
+      <c r="A208" s="8">
         <v>43830</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="6">
+      <c r="A209" s="8">
         <v>43831</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="6">
+      <c r="A210" s="8">
         <v>43832</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="6">
+      <c r="A211" s="8">
         <v>43833</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="6">
+      <c r="A212" s="8">
         <v>43834</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="6">
+      <c r="A213" s="8">
         <v>43835</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="6">
+      <c r="A214" s="8">
         <v>43836</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="6">
+      <c r="A215" s="8">
         <v>43837</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="6">
+      <c r="A216" s="8">
         <v>43838</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="6">
+      <c r="A217" s="8">
         <v>43839</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="6">
+      <c r="A218" s="8">
         <v>43840</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="6">
+      <c r="A219" s="8">
         <v>43841</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="6">
+      <c r="A220" s="8">
         <v>43842</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="6">
+      <c r="A221" s="8">
         <v>43843</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="6">
+      <c r="A222" s="8">
         <v>43844</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="6">
+      <c r="A223" s="8">
         <v>43845</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="6">
+      <c r="A224" s="8">
         <v>43846</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="6">
+      <c r="A225" s="8">
         <v>43847</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="6">
+      <c r="A226" s="8">
         <v>43848</v>
       </c>
     </row>
@@ -3025,12 +3128,273 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="J4 H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="6">
+        <v>27.01</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6">
+        <v>53.25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="6">
+        <v>32.06</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5">
+        <v>43657</v>
+      </c>
+      <c r="B3">
+        <v>0.33</v>
+      </c>
+      <c r="C3">
+        <v>0.55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3">
+        <v>-1.21</v>
+      </c>
+      <c r="F3">
+        <v>0.81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3">
+        <v>-1.17</v>
+      </c>
+      <c r="I3">
+        <v>1.48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>43658</v>
+      </c>
+      <c r="B4">
+        <v>-0.15</v>
+      </c>
+      <c r="C4">
+        <v>0.44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>0.44</v>
+      </c>
+      <c r="I4">
+        <v>1.37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5">
+        <v>43661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5">
+        <v>43664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5">
+        <v>43666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5">
+        <v>43667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5">
+        <v>43669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5">
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5">
+        <v>43673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5">
+        <v>43674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5">
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5">
+        <v>43677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5">
+        <v>43679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5">
+        <v>43681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5">
+        <v>43683</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K28" sqref="K28"/>
+      <selection pane="topRight" activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3058,7 +3422,8 @@
     <col min="21" max="21" width="24.7" style="3" customWidth="1"/>
     <col min="22" max="22" width="26.0333333333333" style="3" customWidth="1"/>
     <col min="23" max="23" width="20.725" style="3" customWidth="1"/>
-    <col min="24" max="34" width="9" style="3"/>
+    <col min="24" max="24" width="32.4916666666667" style="3" customWidth="1"/>
+    <col min="25" max="34" width="9" style="3"/>
     <col min="35" max="36" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -3067,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3171,10 +3536,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3192,7 +3557,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3275,10 +3640,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3379,10 +3744,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3478,15 +3843,15 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -3510,538 +3875,571 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>102</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>120</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>138</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>155</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>172</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>188</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>202</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>214</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4049,7 +4447,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4057,7 +4455,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4065,7 +4463,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>
@@ -4076,21 +4474,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
 </file>
--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="252">
   <si>
     <t>时间</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>1429</t>
+  </si>
+  <si>
+    <t>2942.19</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>1.国家统计局：上半年国内生产总值6.3%，操预置。</t>
   </si>
   <si>
     <t>海康威视</t>
@@ -779,11 +791,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
@@ -802,7 +814,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -823,30 +842,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,20 +852,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -906,6 +890,28 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -913,9 +919,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -938,7 +943,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -953,7 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +977,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,37 +1115,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,109 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,16 +1160,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,6 +1194,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,17 +1239,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,15 +1256,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1252,149 +1264,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,9 +1424,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1754,8 +1763,8 @@
   <sheetPr/>
   <dimension ref="A1:I226"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1763,7 +1772,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="4" width="12.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="79.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="79.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="24.625" customWidth="1"/>
   </cols>
@@ -1795,10 +1804,10 @@
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:9">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>43623</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -1806,7 +1815,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>43624</v>
       </c>
       <c r="I3" t="s">
@@ -1814,7 +1823,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>43625</v>
       </c>
       <c r="I4" t="s">
@@ -1822,10 +1831,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>43626</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
@@ -1833,7 +1842,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>43627</v>
       </c>
       <c r="G6" t="s">
@@ -1841,40 +1850,40 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>43628</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>43629</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>43630</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>43631</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>43632</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>43633</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>43634</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
@@ -1882,18 +1891,18 @@
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:6">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>43635</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>43636</v>
       </c>
       <c r="E15" t="s">
@@ -1901,26 +1910,26 @@
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:6">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>43637</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>43638</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>43640</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1931,7 +1940,7 @@
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>43641</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1940,12 +1949,12 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>43642</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1956,18 +1965,18 @@
       </c>
     </row>
     <row r="21" ht="42.75" spans="1:7">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>43643</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>43644</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1979,26 +1988,26 @@
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>43645</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>43646</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>43647</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2012,7 +2021,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>43648</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2026,7 +2035,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>43649</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2040,7 +2049,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>43650</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2054,7 +2063,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
@@ -2064,10 +2073,10 @@
       <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>43652</v>
       </c>
       <c r="G30" t="s">
@@ -2075,7 +2084,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>43653</v>
       </c>
       <c r="G31" t="s">
@@ -2083,7 +2092,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>43654</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2100,7 +2109,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>43655</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2114,7 +2123,7 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:6">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>43656</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2126,12 +2135,12 @@
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>43657</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2143,12 +2152,12 @@
       <c r="D35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>43658</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2161,953 +2170,965 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8">
+    <row r="37" spans="1:6">
+      <c r="A37" s="7">
         <v>43659</v>
       </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>43660</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>43661</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>43662</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>43663</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>43664</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>43665</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>43666</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>43667</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>43668</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>43669</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>43670</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>43671</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>43672</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>43673</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>43674</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>43675</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="8">
+      <c r="A54" s="7">
         <v>43676</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="8">
+      <c r="A55" s="7">
         <v>43677</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="8">
+      <c r="A56" s="7">
         <v>43678</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="8">
+      <c r="A57" s="7">
         <v>43679</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="8">
+      <c r="A58" s="7">
         <v>43680</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="8">
+      <c r="A59" s="7">
         <v>43681</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="8">
+      <c r="A60" s="7">
         <v>43682</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="8">
+      <c r="A61" s="7">
         <v>43683</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="8">
+      <c r="A62" s="7">
         <v>43684</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>43685</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>43686</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="8">
+      <c r="A65" s="7">
         <v>43687</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="8">
+      <c r="A66" s="7">
         <v>43688</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="8">
+      <c r="A67" s="7">
         <v>43689</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="8">
+      <c r="A68" s="7">
         <v>43690</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="8">
+      <c r="A69" s="7">
         <v>43691</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="8">
+      <c r="A70" s="7">
         <v>43692</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="8">
+      <c r="A71" s="7">
         <v>43693</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="8">
+      <c r="A72" s="7">
         <v>43694</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="8">
+      <c r="A73" s="7">
         <v>43695</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="8">
+      <c r="A74" s="7">
         <v>43696</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="8">
+      <c r="A75" s="7">
         <v>43697</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="8">
+      <c r="A76" s="7">
         <v>43698</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="8">
+      <c r="A77" s="7">
         <v>43699</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="8">
+      <c r="A78" s="7">
         <v>43700</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="8">
+      <c r="A79" s="7">
         <v>43701</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="8">
+      <c r="A80" s="7">
         <v>43702</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="8">
+      <c r="A81" s="7">
         <v>43703</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="8">
+      <c r="A82" s="7">
         <v>43704</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="8">
+      <c r="A83" s="7">
         <v>43705</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="8">
+      <c r="A84" s="7">
         <v>43706</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="8">
+      <c r="A85" s="7">
         <v>43707</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="8">
+      <c r="A86" s="7">
         <v>43708</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="8">
+      <c r="A87" s="7">
         <v>43709</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="8">
+      <c r="A88" s="7">
         <v>43710</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="8">
+      <c r="A89" s="7">
         <v>43711</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="8">
+      <c r="A90" s="7">
         <v>43712</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>43713</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>43714</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>43715</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>43716</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>43717</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>43718</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>43719</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>43720</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>43721</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="8">
+      <c r="A100" s="7">
         <v>43722</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="8">
+      <c r="A101" s="7">
         <v>43723</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="8">
+      <c r="A102" s="7">
         <v>43724</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="8">
+      <c r="A103" s="7">
         <v>43725</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="8">
+      <c r="A104" s="7">
         <v>43726</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="8">
+      <c r="A105" s="7">
         <v>43727</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="8">
+      <c r="A106" s="7">
         <v>43728</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="8">
+      <c r="A107" s="7">
         <v>43729</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="8">
+      <c r="A108" s="7">
         <v>43730</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="8">
+      <c r="A109" s="7">
         <v>43731</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="8">
+      <c r="A110" s="7">
         <v>43732</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="8">
+      <c r="A111" s="7">
         <v>43733</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="8">
+      <c r="A112" s="7">
         <v>43734</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="8">
+      <c r="A113" s="7">
         <v>43735</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="8">
+      <c r="A114" s="7">
         <v>43736</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="8">
+      <c r="A115" s="7">
         <v>43737</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="8">
+      <c r="A116" s="7">
         <v>43738</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="8">
+      <c r="A117" s="7">
         <v>43739</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="8">
+      <c r="A118" s="7">
         <v>43740</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="8">
+      <c r="A119" s="7">
         <v>43741</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="8">
+      <c r="A120" s="7">
         <v>43742</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="8">
+      <c r="A121" s="7">
         <v>43743</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="8">
+      <c r="A122" s="7">
         <v>43744</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="8">
+      <c r="A123" s="7">
         <v>43745</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="8">
+      <c r="A124" s="7">
         <v>43746</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="8">
+      <c r="A125" s="7">
         <v>43747</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="8">
+      <c r="A126" s="7">
         <v>43748</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="8">
+      <c r="A127" s="7">
         <v>43749</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="8">
+      <c r="A128" s="7">
         <v>43750</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="8">
+      <c r="A129" s="7">
         <v>43751</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="8">
+      <c r="A130" s="7">
         <v>43752</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="8">
+      <c r="A131" s="7">
         <v>43753</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="8">
+      <c r="A132" s="7">
         <v>43754</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="8">
+      <c r="A133" s="7">
         <v>43755</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="8">
+      <c r="A134" s="7">
         <v>43756</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="8">
+      <c r="A135" s="7">
         <v>43757</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="8">
+      <c r="A136" s="7">
         <v>43758</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="8">
+      <c r="A137" s="7">
         <v>43759</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="8">
+      <c r="A138" s="7">
         <v>43760</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="8">
+      <c r="A139" s="7">
         <v>43761</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="8">
+      <c r="A140" s="7">
         <v>43762</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="8">
+      <c r="A141" s="7">
         <v>43763</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="8">
+      <c r="A142" s="7">
         <v>43764</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="8">
+      <c r="A143" s="7">
         <v>43765</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="8">
+      <c r="A144" s="7">
         <v>43766</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="8">
+      <c r="A145" s="7">
         <v>43767</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="8">
+      <c r="A146" s="7">
         <v>43768</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="8">
+      <c r="A147" s="7">
         <v>43769</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="8">
+      <c r="A148" s="7">
         <v>43770</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="8">
+      <c r="A149" s="7">
         <v>43771</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="8">
+      <c r="A150" s="7">
         <v>43772</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="8">
+      <c r="A151" s="7">
         <v>43773</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="8">
+      <c r="A152" s="7">
         <v>43774</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="8">
+      <c r="A153" s="7">
         <v>43775</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="8">
+      <c r="A154" s="7">
         <v>43776</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="8">
+      <c r="A155" s="7">
         <v>43777</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="8">
+      <c r="A156" s="7">
         <v>43778</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="8">
+      <c r="A157" s="7">
         <v>43779</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="8">
+      <c r="A158" s="7">
         <v>43780</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="8">
+      <c r="A159" s="7">
         <v>43781</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="8">
+      <c r="A160" s="7">
         <v>43782</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="8">
+      <c r="A161" s="7">
         <v>43783</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="8">
+      <c r="A162" s="7">
         <v>43784</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="8">
+      <c r="A163" s="7">
         <v>43785</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="8">
+      <c r="A164" s="7">
         <v>43786</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="8">
+      <c r="A165" s="7">
         <v>43787</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="8">
+      <c r="A166" s="7">
         <v>43788</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="8">
+      <c r="A167" s="7">
         <v>43789</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="8">
+      <c r="A168" s="7">
         <v>43790</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="8">
+      <c r="A169" s="7">
         <v>43791</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="8">
+      <c r="A170" s="7">
         <v>43792</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="8">
+      <c r="A171" s="7">
         <v>43793</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="8">
+      <c r="A172" s="7">
         <v>43794</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="8">
+      <c r="A173" s="7">
         <v>43795</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="8">
+      <c r="A174" s="7">
         <v>43796</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="8">
+      <c r="A175" s="7">
         <v>43797</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="8">
+      <c r="A176" s="7">
         <v>43798</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="8">
+      <c r="A177" s="7">
         <v>43799</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="8">
+      <c r="A178" s="7">
         <v>43800</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="8">
+      <c r="A179" s="7">
         <v>43801</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="8">
+      <c r="A180" s="7">
         <v>43802</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="8">
+      <c r="A181" s="7">
         <v>43803</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="8">
+      <c r="A182" s="7">
         <v>43804</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="8">
+      <c r="A183" s="7">
         <v>43805</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="8">
+      <c r="A184" s="7">
         <v>43806</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="8">
+      <c r="A185" s="7">
         <v>43807</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="8">
+      <c r="A186" s="7">
         <v>43808</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="8">
+      <c r="A187" s="7">
         <v>43809</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="8">
+      <c r="A188" s="7">
         <v>43810</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="8">
+      <c r="A189" s="7">
         <v>43811</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="8">
+      <c r="A190" s="7">
         <v>43812</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="8">
+      <c r="A191" s="7">
         <v>43813</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="8">
+      <c r="A192" s="7">
         <v>43814</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="8">
+      <c r="A193" s="7">
         <v>43815</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="8">
+      <c r="A194" s="7">
         <v>43816</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="8">
+      <c r="A195" s="7">
         <v>43817</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="8">
+      <c r="A196" s="7">
         <v>43818</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="8">
+      <c r="A197" s="7">
         <v>43819</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="8">
+      <c r="A198" s="7">
         <v>43820</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="8">
+      <c r="A199" s="7">
         <v>43821</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="8">
+      <c r="A200" s="7">
         <v>43822</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="8">
+      <c r="A201" s="7">
         <v>43823</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="8">
+      <c r="A202" s="7">
         <v>43824</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="8">
+      <c r="A203" s="7">
         <v>43825</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="8">
+      <c r="A204" s="7">
         <v>43826</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="8">
+      <c r="A205" s="7">
         <v>43827</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="8">
+      <c r="A206" s="7">
         <v>43828</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="8">
+      <c r="A207" s="7">
         <v>43829</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="8">
+      <c r="A208" s="7">
         <v>43830</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="8">
+      <c r="A209" s="7">
         <v>43831</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="8">
+      <c r="A210" s="7">
         <v>43832</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="8">
+      <c r="A211" s="7">
         <v>43833</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="8">
+      <c r="A212" s="7">
         <v>43834</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="8">
+      <c r="A213" s="7">
         <v>43835</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="8">
+      <c r="A214" s="7">
         <v>43836</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="8">
+      <c r="A215" s="7">
         <v>43837</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="8">
+      <c r="A216" s="7">
         <v>43838</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="8">
+      <c r="A217" s="7">
         <v>43839</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="8">
+      <c r="A218" s="7">
         <v>43840</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="8">
+      <c r="A219" s="7">
         <v>43841</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="8">
+      <c r="A220" s="7">
         <v>43842</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="8">
+      <c r="A221" s="7">
         <v>43843</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="8">
+      <c r="A222" s="7">
         <v>43844</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="8">
+      <c r="A223" s="7">
         <v>43845</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="8">
+      <c r="A224" s="7">
         <v>43846</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="8">
+      <c r="A225" s="7">
         <v>43847</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="8">
+      <c r="A226" s="7">
         <v>43848</v>
       </c>
     </row>
@@ -3130,8 +3151,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="J4 H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3140,49 +3161,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
-      <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="6">
+      <c r="B2" s="2">
         <v>27.01</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2">
         <v>53.25</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="2">
         <v>32.06</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>75</v>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3196,7 +3217,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3205,7 +3226,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3214,7 +3235,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3228,7 +3249,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3237,7 +3258,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3246,7 +3267,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3259,9 +3280,36 @@
         <v>43660</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>43661</v>
+      </c>
+      <c r="B7">
+        <v>0.67</v>
+      </c>
+      <c r="C7">
+        <v>0.76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>2.01</v>
+      </c>
+      <c r="F7">
+        <v>1.07</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7">
+        <v>2.08</v>
+      </c>
+      <c r="I7">
+        <v>2.25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -3391,10 +3439,10 @@
   <sheetPr/>
   <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3432,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3536,10 +3584,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3557,7 +3605,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3640,10 +3688,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3744,10 +3792,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3848,10 +3896,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -3875,46 +3923,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3922,67 +3970,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3990,64 +4038,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4055,61 +4103,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4117,58 +4165,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4176,58 +4224,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4235,49 +4283,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4285,46 +4333,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4332,43 +4380,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4376,28 +4424,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4405,41 +4453,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4447,7 +4495,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4455,7 +4503,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4463,7 +4511,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$226</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="257">
   <si>
     <t>时间</t>
   </si>
@@ -255,6 +255,15 @@
     <t>1.国家统计局：上半年国内生产总值6.3%，操预置。</t>
   </si>
   <si>
+    <t>2937.62</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
     <t>海康威视</t>
   </si>
   <si>
@@ -274,6 +283,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>/\_</t>
   </si>
   <si>
     <t>股票</t>
@@ -791,10 +806,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -806,6 +821,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -814,21 +836,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -836,15 +851,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,7 +866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -889,21 +896,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -913,7 +905,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,13 +965,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -965,67 +980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,25 +1004,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,6 +1070,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1091,7 +1094,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,37 +1142,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,60 +1171,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1230,11 +1191,65 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1764,7 +1779,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2187,9 +2202,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:4">
       <c r="A38" s="7">
         <v>43660</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -3152,7 +3176,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3162,17 +3186,17 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3182,28 +3206,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3217,7 +3241,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3226,7 +3250,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3235,7 +3259,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3249,7 +3273,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3258,7 +3282,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3267,7 +3291,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3291,7 +3315,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3300,7 +3324,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3309,12 +3333,39 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>43662</v>
+      </c>
+      <c r="B8">
+        <v>-1.4</v>
+      </c>
+      <c r="C8">
+        <v>0.41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>-1.03</v>
+      </c>
+      <c r="F8">
+        <v>0.47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>0.18</v>
+      </c>
+      <c r="I8">
+        <v>1.79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3480,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3584,10 +3635,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3605,7 +3656,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3688,10 +3739,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3792,10 +3843,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3896,10 +3947,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -3923,46 +3974,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3970,67 +4021,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4038,64 +4089,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4103,61 +4154,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4165,58 +4216,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4224,58 +4275,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4283,49 +4334,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4333,46 +4384,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4380,43 +4431,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4424,28 +4475,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4453,41 +4504,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4495,7 +4546,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4503,7 +4554,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4511,7 +4562,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="265">
   <si>
     <t>时间</t>
   </si>
@@ -262,6 +262,30 @@
   </si>
   <si>
     <t>1407</t>
+  </si>
+  <si>
+    <t>2931.69</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>1.美16日晚发布称中美达成协议的路很长，可能会发动3250亿关税。</t>
+  </si>
+  <si>
+    <t>2901.18</t>
+  </si>
+  <si>
+    <t>-1.04</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>2924.2</t>
+  </si>
+  <si>
+    <t>0.79</t>
   </si>
   <si>
     <t>海康威视</t>
@@ -808,8 +832,8 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -821,14 +845,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -843,7 +890,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -851,14 +898,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -881,61 +973,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -949,23 +988,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -980,7 +1004,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,175 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,6 +1195,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1198,28 +1246,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,17 +1276,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,15 +1295,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1279,10 +1303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,19 +1315,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,112 +1336,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1779,7 +1803,7 @@
   <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2216,19 +2240,50 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" customFormat="1" spans="1:6">
       <c r="A39" s="7">
         <v>43661</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="7">
         <v>43662</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="7">
         <v>43663</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3176,7 +3231,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3186,17 +3241,17 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3206,28 +3261,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3241,7 +3296,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3250,7 +3305,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3259,7 +3314,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3273,7 +3328,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3282,7 +3337,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3291,7 +3346,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3315,7 +3370,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3324,7 +3379,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3333,7 +3388,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3347,7 +3402,7 @@
         <v>0.41</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>-1.03</v>
@@ -3356,7 +3411,7 @@
         <v>0.47</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <v>0.18</v>
@@ -3365,22 +3420,76 @@
         <v>1.79</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>43663</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0.13</v>
+      </c>
+      <c r="C9">
+        <v>0.51</v>
+      </c>
+      <c r="E9">
+        <v>-0.24</v>
+      </c>
+      <c r="F9">
+        <v>0.54</v>
+      </c>
+      <c r="H9">
+        <v>-1.28</v>
+      </c>
+      <c r="I9">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>43664</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>-2.71</v>
+      </c>
+      <c r="C10">
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>-2.2</v>
+      </c>
+      <c r="F10">
+        <v>0.78</v>
+      </c>
+      <c r="H10">
+        <v>-3.54</v>
+      </c>
+      <c r="I10">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>43665</v>
+      </c>
+      <c r="B11">
+        <v>1.18</v>
+      </c>
+      <c r="C11">
+        <v>0.44</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.53</v>
+      </c>
+      <c r="H11">
+        <v>-0.45</v>
+      </c>
+      <c r="I11">
+        <v>1.88</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3531,13 +3640,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3635,10 +3744,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3656,7 +3765,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3739,10 +3848,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3843,10 +3952,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -3947,10 +4056,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -3974,46 +4083,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -4021,67 +4130,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4089,64 +4198,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4154,61 +4263,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4216,58 +4325,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4275,58 +4384,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4334,49 +4443,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4384,46 +4493,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4431,43 +4540,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4475,28 +4584,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4504,41 +4613,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4546,7 +4655,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4554,7 +4663,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4562,7 +4671,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Sheet4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="298">
   <si>
     <t>时间</t>
   </si>
@@ -288,6 +289,100 @@
     <t>0.79</t>
   </si>
   <si>
+    <t>1.中方磋商购买美国粮食</t>
+  </si>
+  <si>
+    <t>2886.97</t>
+  </si>
+  <si>
+    <t>-1.27</t>
+  </si>
+  <si>
+    <t>2042.89</t>
+  </si>
+  <si>
+    <t>1.科创板开市</t>
+  </si>
+  <si>
+    <t>2899.94</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1480.77</t>
+  </si>
+  <si>
+    <t>2923.28</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1788</t>
+  </si>
+  <si>
+    <t>2937.36</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1.7062亿养老金已到账投资。</t>
+  </si>
+  <si>
+    <t>2944.54</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>1587</t>
+  </si>
+  <si>
+    <t>2941.01</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>2952.34</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>2932.51</t>
+  </si>
+  <si>
+    <t>-0.67</t>
+  </si>
+  <si>
+    <t>1646</t>
+  </si>
+  <si>
+    <t>1.中美贸易谈判结果将在9月继续谈判，中国欲购买美国农产品。
+2.美联储降息25个点，达到预期但没有达到50。（利好出尽是利空，美股A都中跌）</t>
+  </si>
+  <si>
+    <t>2908.77</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>海康威视</t>
   </si>
   <si>
@@ -313,6 +408,12 @@
   </si>
   <si>
     <t>/\_</t>
+  </si>
+  <si>
+    <t>营收曾14%，净利润1.67%（中国经济下滑）</t>
+  </si>
+  <si>
+    <t>丰田比亚迪联盟</t>
   </si>
   <si>
     <t>股票</t>
@@ -830,10 +931,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -844,6 +945,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -851,24 +967,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -883,15 +984,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -899,22 +1006,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -934,8 +1025,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -943,14 +1035,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -964,32 +1089,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1004,7 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,25 +1129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,19 +1159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,55 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,19 +1195,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1249,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,6 +1296,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1213,11 +1338,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,45 +1388,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1286,15 +1396,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1303,10 +1404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,10 +1416,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1327,125 +1428,125 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,6 +1564,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1800,10 +1904,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1811,7 +1915,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="4" width="12.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="79.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="79.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="9" max="9" width="24.625" customWidth="1"/>
   </cols>
@@ -1843,10 +1947,10 @@
       </c>
     </row>
     <row r="2" ht="42.75" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>43623</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
@@ -1854,7 +1958,7 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>43624</v>
       </c>
       <c r="I3" t="s">
@@ -1862,7 +1966,7 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>43625</v>
       </c>
       <c r="I4" t="s">
@@ -1870,10 +1974,10 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>43626</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I5" t="s">
@@ -1881,7 +1985,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>43627</v>
       </c>
       <c r="G6" t="s">
@@ -1889,40 +1993,40 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>43628</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>43629</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>43630</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>43631</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>43632</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>43633</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>43634</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
@@ -1930,18 +2034,18 @@
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>43635</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>43636</v>
       </c>
       <c r="E15" t="s">
@@ -1949,26 +2053,26 @@
       </c>
     </row>
     <row r="16" ht="28.5" spans="1:6">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>43637</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>43638</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>43640</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1979,7 +2083,7 @@
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:6">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>43641</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1988,12 +2092,12 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>43642</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2004,18 +2108,18 @@
       </c>
     </row>
     <row r="21" ht="42.75" spans="1:7">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>43643</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>43644</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2027,26 +2131,26 @@
       <c r="D22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>43645</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>43646</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>43647</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2060,7 +2164,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>43648</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2074,7 +2178,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>43649</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2088,7 +2192,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>43650</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2102,7 +2206,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
@@ -2112,10 +2216,10 @@
       <c r="D29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>43652</v>
       </c>
       <c r="G30" t="s">
@@ -2123,7 +2227,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>43653</v>
       </c>
       <c r="G31" t="s">
@@ -2131,7 +2235,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>43654</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2148,7 +2252,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>43655</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2162,7 +2266,7 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:6">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>43656</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2174,12 +2278,12 @@
       <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>43657</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2191,12 +2295,12 @@
       <c r="D35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>43658</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2209,1010 +2313,1132 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7">
+    <row r="37" spans="1:1">
+      <c r="A37" s="8">
         <v>43659</v>
       </c>
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="8">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7">
-        <v>43660</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="8">
+        <v>43662</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:6">
-      <c r="A39" s="7">
-        <v>43661</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="41" customFormat="1" spans="1:6">
+      <c r="A41" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E39"/>
-      <c r="F39" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7">
-        <v>43662</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="8">
+        <v>43664</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7">
-        <v>43663</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="8">
+        <v>43665</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7">
-        <v>43664</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7">
-        <v>43665</v>
-      </c>
-    </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>43666</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7">
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
         <v>43667</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7">
+      <c r="F45" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
         <v>43668</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7">
+      <c r="B46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8">
         <v>43669</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7">
+      <c r="B47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8">
         <v>43670</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="7">
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8">
         <v>43671</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7">
+      <c r="B49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8">
         <v>43672</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7">
+      <c r="B50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8">
         <v>43673</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7">
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8">
         <v>43674</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7">
+      <c r="B52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" ht="28.5" spans="1:6">
+      <c r="A53" s="8">
         <v>43675</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7">
+      <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8">
         <v>43676</v>
       </c>
+      <c r="B54" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>43677</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>43678</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>43679</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>43680</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>43681</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>43682</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>43683</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>43684</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>43685</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>43686</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>43687</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>43688</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>43689</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>43690</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>43691</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
         <v>43692</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>43693</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>43694</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>43695</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>43696</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>43697</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>43698</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>43699</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>43700</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>43701</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>43702</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>43703</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="7">
+      <c r="A82" s="8">
         <v>43704</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>43705</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>43706</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>43707</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>43708</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>43709</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>43710</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>43711</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
         <v>43712</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>43713</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="7">
+      <c r="A92" s="8">
         <v>43714</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>43715</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>43716</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>43717</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>43718</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>43719</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>43720</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>43721</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>43722</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>43723</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>43724</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>43725</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>43726</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>43727</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>43728</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>43729</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="7">
+      <c r="A108" s="8">
         <v>43730</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>43731</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>43732</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>43733</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="7">
+      <c r="A112" s="8">
         <v>43734</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="7">
+      <c r="A113" s="8">
         <v>43735</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>43736</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>43737</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>43738</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="7">
+      <c r="A117" s="8">
         <v>43739</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="7">
+      <c r="A118" s="8">
         <v>43740</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>43741</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="7">
+      <c r="A120" s="8">
         <v>43742</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>43743</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>43744</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>43745</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>43746</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>43747</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>43748</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>43749</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>43750</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>43751</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>43752</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="7">
+      <c r="A131" s="8">
         <v>43753</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>43754</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>43755</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="7">
+      <c r="A134" s="8">
         <v>43756</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>43757</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="7">
+      <c r="A136" s="8">
         <v>43758</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="7">
+      <c r="A137" s="8">
         <v>43759</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="7">
+      <c r="A138" s="8">
         <v>43760</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>43761</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="7">
+      <c r="A140" s="8">
         <v>43762</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>43763</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="7">
+      <c r="A142" s="8">
         <v>43764</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>43765</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="7">
+      <c r="A144" s="8">
         <v>43766</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>43767</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="7">
+      <c r="A146" s="8">
         <v>43768</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="7">
+      <c r="A147" s="8">
         <v>43769</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="7">
+      <c r="A148" s="8">
         <v>43770</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="7">
+      <c r="A149" s="8">
         <v>43771</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="7">
+      <c r="A150" s="8">
         <v>43772</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="7">
+      <c r="A151" s="8">
         <v>43773</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="7">
+      <c r="A152" s="8">
         <v>43774</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="7">
+      <c r="A153" s="8">
         <v>43775</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="7">
+      <c r="A154" s="8">
         <v>43776</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="7">
+      <c r="A155" s="8">
         <v>43777</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="7">
+      <c r="A156" s="8">
         <v>43778</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="7">
+      <c r="A157" s="8">
         <v>43779</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="7">
+      <c r="A158" s="8">
         <v>43780</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="7">
+      <c r="A159" s="8">
         <v>43781</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="7">
+      <c r="A160" s="8">
         <v>43782</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="7">
+      <c r="A161" s="8">
         <v>43783</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="7">
+      <c r="A162" s="8">
         <v>43784</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="7">
+      <c r="A163" s="8">
         <v>43785</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="7">
+      <c r="A164" s="8">
         <v>43786</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="7">
+      <c r="A165" s="8">
         <v>43787</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="7">
+      <c r="A166" s="8">
         <v>43788</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="7">
+      <c r="A167" s="8">
         <v>43789</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="7">
+      <c r="A168" s="8">
         <v>43790</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="7">
+      <c r="A169" s="8">
         <v>43791</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="7">
+      <c r="A170" s="8">
         <v>43792</v>
       </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="7">
+      <c r="A171" s="8">
         <v>43793</v>
       </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="7">
+      <c r="A172" s="8">
         <v>43794</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="7">
+      <c r="A173" s="8">
         <v>43795</v>
       </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="7">
+      <c r="A174" s="8">
         <v>43796</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="7">
+      <c r="A175" s="8">
         <v>43797</v>
       </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="7">
+      <c r="A176" s="8">
         <v>43798</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="7">
+      <c r="A177" s="8">
         <v>43799</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="7">
+      <c r="A178" s="8">
         <v>43800</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="7">
+      <c r="A179" s="8">
         <v>43801</v>
       </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="7">
+      <c r="A180" s="8">
         <v>43802</v>
       </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="7">
+      <c r="A181" s="8">
         <v>43803</v>
       </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="7">
+      <c r="A182" s="8">
         <v>43804</v>
       </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="7">
+      <c r="A183" s="8">
         <v>43805</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="7">
+      <c r="A184" s="8">
         <v>43806</v>
       </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="7">
+      <c r="A185" s="8">
         <v>43807</v>
       </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="7">
+      <c r="A186" s="8">
         <v>43808</v>
       </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="7">
+      <c r="A187" s="8">
         <v>43809</v>
       </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="7">
+      <c r="A188" s="8">
         <v>43810</v>
       </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="7">
+      <c r="A189" s="8">
         <v>43811</v>
       </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="7">
+      <c r="A190" s="8">
         <v>43812</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="7">
+      <c r="A191" s="8">
         <v>43813</v>
       </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="7">
+      <c r="A192" s="8">
         <v>43814</v>
       </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="7">
+      <c r="A193" s="8">
         <v>43815</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="7">
+      <c r="A194" s="8">
         <v>43816</v>
       </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="7">
+      <c r="A195" s="8">
         <v>43817</v>
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="7">
+      <c r="A196" s="8">
         <v>43818</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="7">
+      <c r="A197" s="8">
         <v>43819</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="7">
+      <c r="A198" s="8">
         <v>43820</v>
       </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="7">
+      <c r="A199" s="8">
         <v>43821</v>
       </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="7">
+      <c r="A200" s="8">
         <v>43822</v>
       </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="7">
+      <c r="A201" s="8">
         <v>43823</v>
       </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="7">
+      <c r="A202" s="8">
         <v>43824</v>
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="7">
+      <c r="A203" s="8">
         <v>43825</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="7">
+      <c r="A204" s="8">
         <v>43826</v>
       </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="7">
+      <c r="A205" s="8">
         <v>43827</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="7">
+      <c r="A206" s="8">
         <v>43828</v>
       </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="7">
+      <c r="A207" s="8">
         <v>43829</v>
       </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="7">
+      <c r="A208" s="8">
         <v>43830</v>
       </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="7">
+      <c r="A209" s="8">
         <v>43831</v>
       </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="7">
+      <c r="A210" s="8">
         <v>43832</v>
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="7">
+      <c r="A211" s="8">
         <v>43833</v>
       </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="7">
+      <c r="A212" s="8">
         <v>43834</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="7">
+      <c r="A213" s="8">
         <v>43835</v>
       </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="7">
+      <c r="A214" s="8">
         <v>43836</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="7">
+      <c r="A215" s="8">
         <v>43837</v>
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="7">
+      <c r="A216" s="8">
         <v>43838</v>
       </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="7">
+      <c r="A217" s="8">
         <v>43839</v>
       </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="7">
+      <c r="A218" s="8">
         <v>43840</v>
       </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="7">
+      <c r="A219" s="8">
         <v>43841</v>
       </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="7">
+      <c r="A220" s="8">
         <v>43842</v>
       </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="7">
+      <c r="A221" s="8">
         <v>43843</v>
       </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="7">
+      <c r="A222" s="8">
         <v>43844</v>
       </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="7">
+      <c r="A223" s="8">
         <v>43845</v>
       </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="7">
+      <c r="A224" s="8">
         <v>43846</v>
       </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="7">
+      <c r="A225" s="8">
         <v>43847</v>
       </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="7">
+      <c r="A226" s="8">
         <v>43848</v>
       </c>
     </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="8">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="8">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="8">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="8">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="8">
+        <v>43854</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F226">
+  <autoFilter ref="A1:F232">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
@@ -3230,8 +3456,10 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3239,19 +3467,22 @@
     <col min="1" max="1" width="13.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3261,28 +3492,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3296,7 +3527,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3305,7 +3536,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3314,7 +3545,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3328,7 +3559,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3337,7 +3568,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3346,7 +3577,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3370,7 +3601,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3379,7 +3610,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3388,7 +3619,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3402,7 +3633,7 @@
         <v>0.41</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E8">
         <v>-1.03</v>
@@ -3411,7 +3642,7 @@
         <v>0.47</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>0.18</v>
@@ -3420,7 +3651,7 @@
         <v>1.79</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3502,49 +3733,217 @@
         <v>43667</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>43668</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>7.82</v>
+      </c>
+      <c r="C14">
+        <v>2.28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14">
+        <v>1.8</v>
+      </c>
+      <c r="F14">
+        <v>1.01</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14">
+        <v>0.19</v>
+      </c>
+      <c r="I14">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>43669</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1.79</v>
+      </c>
+      <c r="C15">
+        <v>1.31</v>
+      </c>
+      <c r="E15">
+        <v>2.6</v>
+      </c>
+      <c r="F15">
+        <v>1.24</v>
+      </c>
+      <c r="H15">
+        <v>0.93</v>
+      </c>
+      <c r="I15">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>43670</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>-0.58</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="E16">
+        <v>-0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.93</v>
+      </c>
+      <c r="H16">
+        <v>3.61</v>
+      </c>
+      <c r="I16">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>4.71</v>
+      </c>
+      <c r="C17">
+        <v>1.71</v>
+      </c>
+      <c r="E17">
+        <v>0.82</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="H17">
+        <v>1.35</v>
+      </c>
+      <c r="I17">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>43672</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.82</v>
+      </c>
+      <c r="C18">
+        <v>1.25</v>
+      </c>
+      <c r="E18">
+        <v>1.45</v>
+      </c>
+      <c r="F18">
+        <v>0.93</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>43673</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.19</v>
+      </c>
+      <c r="C19">
+        <v>0.71</v>
+      </c>
+      <c r="E19">
+        <v>-0.35</v>
+      </c>
+      <c r="F19">
+        <v>0.56</v>
+      </c>
+      <c r="H19">
+        <v>-0.18</v>
+      </c>
+      <c r="I19">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>43674</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>-1.43</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
+      </c>
+      <c r="E20">
+        <v>-0.24</v>
+      </c>
+      <c r="F20">
+        <v>0.66</v>
+      </c>
+      <c r="H20">
+        <v>0.03</v>
+      </c>
+      <c r="I20">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>43675</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.48</v>
+      </c>
+      <c r="C21">
+        <v>0.79</v>
+      </c>
+      <c r="E21">
+        <v>-1.98</v>
+      </c>
+      <c r="F21">
+        <v>0.79</v>
+      </c>
+      <c r="H21">
+        <v>-1.23</v>
+      </c>
+      <c r="I21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>43676</v>
+      </c>
+      <c r="B22">
+        <v>-0.52</v>
+      </c>
+      <c r="C22">
+        <v>0.63</v>
+      </c>
+      <c r="E22">
+        <v>-0.39</v>
+      </c>
+      <c r="F22">
+        <v>0.78</v>
+      </c>
+      <c r="H22">
+        <v>-0.58</v>
+      </c>
+      <c r="I22">
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -3583,6 +3982,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J29">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -3640,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -3744,10 +4146,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -3765,7 +4167,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -3848,10 +4250,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -3952,10 +4354,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4056,10 +4458,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -4083,46 +4485,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -4130,67 +4532,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4198,64 +4600,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4263,61 +4665,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4325,58 +4727,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4384,58 +4786,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4443,49 +4845,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4493,46 +4895,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4540,43 +4942,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4584,28 +4986,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4613,41 +5015,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -4655,7 +5057,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -4663,7 +5065,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -4671,7 +5073,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$234</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="301">
   <si>
     <t>时间</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>1711</t>
+  </si>
+  <si>
+    <t>2867.84</t>
+  </si>
+  <si>
+    <t>-1.41</t>
+  </si>
+  <si>
+    <t>2163.27</t>
   </si>
   <si>
     <t>海康威视</t>
@@ -931,10 +940,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -943,118 +952,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1073,9 +970,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1090,7 +1099,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1105,31 +1114,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,31 +1168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,91 +1186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,13 +1210,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,26 +1308,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,11 +1347,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,7 +1366,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,6 +1388,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1404,10 +1413,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,133 +1425,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1904,10 +1913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2488,49 +2497,28 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:1">
       <c r="A51" s="8">
         <v>43673</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="8">
         <v>43674</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" ht="28.5" spans="1:6">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="8">
         <v>43675</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2538,28 +2526,58 @@
         <v>43676</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5" spans="1:6">
       <c r="A55" s="8">
         <v>43677</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="8">
         <v>43678</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="8">
         <v>43679</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -3437,8 +3455,58 @@
         <v>43854</v>
       </c>
     </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="8">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="8">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="8">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="8">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="8">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="8">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="8">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="8">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="8">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="8">
+        <v>43864</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F232">
+  <autoFilter ref="A1:F234">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
@@ -3456,10 +3524,10 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3472,17 +3540,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3492,28 +3560,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3527,7 +3595,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3536,7 +3604,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3545,7 +3613,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3559,7 +3627,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3568,7 +3636,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3577,7 +3645,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3601,7 +3669,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3610,7 +3678,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3619,7 +3687,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3633,7 +3701,7 @@
         <v>0.41</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8">
         <v>-1.03</v>
@@ -3642,7 +3710,7 @@
         <v>0.47</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>0.18</v>
@@ -3651,7 +3719,7 @@
         <v>1.79</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3744,7 +3812,7 @@
         <v>2.28</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>1.8</v>
@@ -3753,7 +3821,7 @@
         <v>1.01</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H14">
         <v>0.19</v>
@@ -3946,9 +4014,27 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>43677</v>
+      </c>
+      <c r="B23">
+        <v>-3.55</v>
+      </c>
+      <c r="C23">
+        <v>1.07</v>
+      </c>
+      <c r="E23">
+        <v>-2.4</v>
+      </c>
+      <c r="F23">
+        <v>0.74</v>
+      </c>
+      <c r="H23">
+        <v>-4.06</v>
+      </c>
+      <c r="I23">
+        <v>2.99</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -4042,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -4146,10 +4232,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -4167,7 +4253,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -4250,10 +4336,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -4354,10 +4440,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4458,10 +4544,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -4485,46 +4571,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -4532,67 +4618,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4600,64 +4686,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4665,61 +4751,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4727,58 +4813,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4786,58 +4872,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4845,49 +4931,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4895,46 +4981,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4942,43 +5028,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4986,28 +5072,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5015,41 +5101,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -5057,7 +5143,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -5065,7 +5151,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -5073,7 +5159,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet4" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$234</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="311">
   <si>
     <t>时间</t>
   </si>
@@ -390,6 +390,36 @@
   </si>
   <si>
     <t>2163.27</t>
+  </si>
+  <si>
+    <t>2821.50</t>
+  </si>
+  <si>
+    <t>-1.62</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1.人民币破7.</t>
+  </si>
+  <si>
+    <t>2777.56</t>
+  </si>
+  <si>
+    <t>-1.56</t>
+  </si>
+  <si>
+    <t>2552</t>
+  </si>
+  <si>
+    <t>2768.68</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>1764</t>
   </si>
   <si>
     <t>海康威视</t>
@@ -940,12 +970,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -955,8 +985,52 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -978,36 +1052,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1016,38 +1068,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1062,14 +1082,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1083,8 +1104,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1098,8 +1127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1114,7 +1144,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1210,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,37 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,13 +1294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,85 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,13 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,8 +1341,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,26 +1377,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,8 +1404,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,6 +1420,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1413,10 +1443,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1425,133 +1455,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,8 +1945,8 @@
   <sheetPr/>
   <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2590,19 +2620,49 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:6">
       <c r="A60" s="8">
         <v>43682</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="8">
         <v>43683</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="8">
         <v>43684</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -3506,7 +3566,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F234">
+  <autoFilter ref="A1:F242">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
@@ -3522,12 +3582,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3540,17 +3600,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3560,28 +3620,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3595,7 +3655,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3604,7 +3664,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3613,7 +3673,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3627,7 +3687,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3636,7 +3696,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3645,7 +3705,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3669,7 +3729,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3678,7 +3738,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3687,7 +3747,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3701,7 +3761,7 @@
         <v>0.41</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>-1.03</v>
@@ -3710,7 +3770,7 @@
         <v>0.47</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="H8">
         <v>0.18</v>
@@ -3719,7 +3779,7 @@
         <v>1.79</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3812,7 +3872,7 @@
         <v>2.28</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E14">
         <v>1.8</v>
@@ -3821,7 +3881,7 @@
         <v>1.01</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H14">
         <v>0.19</v>
@@ -3922,50 +3982,14 @@
         <v>2.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:1">
       <c r="A19" s="5">
         <v>43673</v>
       </c>
-      <c r="B19">
-        <v>0.19</v>
-      </c>
-      <c r="C19">
-        <v>0.71</v>
-      </c>
-      <c r="E19">
-        <v>-0.35</v>
-      </c>
-      <c r="F19">
-        <v>0.56</v>
-      </c>
-      <c r="H19">
-        <v>-0.18</v>
-      </c>
-      <c r="I19">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="5">
         <v>43674</v>
-      </c>
-      <c r="B20">
-        <v>-1.43</v>
-      </c>
-      <c r="C20">
-        <v>0.75</v>
-      </c>
-      <c r="E20">
-        <v>-0.24</v>
-      </c>
-      <c r="F20">
-        <v>0.66</v>
-      </c>
-      <c r="H20">
-        <v>0.03</v>
-      </c>
-      <c r="I20">
-        <v>1.91</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3973,22 +3997,22 @@
         <v>43675</v>
       </c>
       <c r="B21">
-        <v>1.48</v>
+        <v>0.19</v>
       </c>
       <c r="C21">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="E21">
-        <v>-1.98</v>
+        <v>-0.35</v>
       </c>
       <c r="F21">
-        <v>0.79</v>
+        <v>0.56</v>
       </c>
       <c r="H21">
-        <v>-1.23</v>
+        <v>-0.18</v>
       </c>
       <c r="I21">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3996,22 +4020,22 @@
         <v>43676</v>
       </c>
       <c r="B22">
-        <v>-0.52</v>
+        <v>-1.43</v>
       </c>
       <c r="C22">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="E22">
-        <v>-0.39</v>
+        <v>-0.24</v>
       </c>
       <c r="F22">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="H22">
-        <v>-0.58</v>
+        <v>0.03</v>
       </c>
       <c r="I22">
-        <v>1.3</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4019,32 +4043,68 @@
         <v>43677</v>
       </c>
       <c r="B23">
-        <v>-3.55</v>
+        <v>1.48</v>
       </c>
       <c r="C23">
-        <v>1.07</v>
+        <v>0.79</v>
       </c>
       <c r="E23">
-        <v>-2.4</v>
+        <v>-1.98</v>
       </c>
       <c r="F23">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="H23">
-        <v>-4.06</v>
+        <v>-1.23</v>
       </c>
       <c r="I23">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>43678</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>-0.52</v>
+      </c>
+      <c r="C24">
+        <v>0.63</v>
+      </c>
+      <c r="E24">
+        <v>-0.39</v>
+      </c>
+      <c r="F24">
+        <v>0.78</v>
+      </c>
+      <c r="H24">
+        <v>-0.58</v>
+      </c>
+      <c r="I24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>43679</v>
+      </c>
+      <c r="B25">
+        <v>-3.55</v>
+      </c>
+      <c r="C25">
+        <v>1.07</v>
+      </c>
+      <c r="E25">
+        <v>-2.4</v>
+      </c>
+      <c r="F25">
+        <v>0.74</v>
+      </c>
+      <c r="H25">
+        <v>-4.06</v>
+      </c>
+      <c r="I25">
+        <v>2.99</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -4057,18 +4117,82 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>43682</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>-3.07</v>
+      </c>
+      <c r="C28">
+        <v>0.89</v>
+      </c>
+      <c r="E28">
+        <v>-3.7</v>
+      </c>
+      <c r="F28">
+        <v>0.92</v>
+      </c>
+      <c r="H28">
+        <v>-0.86</v>
+      </c>
+      <c r="I28">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>43683</v>
       </c>
+      <c r="B29">
+        <v>-0.03</v>
+      </c>
+      <c r="C29">
+        <v>1.01</v>
+      </c>
+      <c r="E29">
+        <v>-1.93</v>
+      </c>
+      <c r="F29">
+        <v>0.95</v>
+      </c>
+      <c r="H29">
+        <v>-2.02</v>
+      </c>
+      <c r="I29">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
+        <v>43684</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30">
+        <v>0.53</v>
+      </c>
+      <c r="E30">
+        <v>-1.11</v>
+      </c>
+      <c r="F30">
+        <v>0.62</v>
+      </c>
+      <c r="H30">
+        <v>-1.08</v>
+      </c>
+      <c r="I30">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5">
+        <v>43685</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J29">
+  <autoFilter ref="A1:J31">
     <extLst/>
   </autoFilter>
   <mergeCells count="3">
@@ -4128,13 +4252,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -4232,10 +4356,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -4253,7 +4377,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -4336,10 +4460,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -4440,10 +4564,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4544,10 +4668,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -4571,46 +4695,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -4618,67 +4742,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4686,64 +4810,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4751,61 +4875,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4813,58 +4937,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4872,58 +4996,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4931,49 +5055,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -4981,46 +5105,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5028,43 +5152,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5072,28 +5196,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5101,41 +5225,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -5143,7 +5267,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -5151,7 +5275,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -5159,7 +5283,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>

--- a/my_stock/股票.xlsx
+++ b/my_stock/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="317">
   <si>
     <t>时间</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>1764</t>
+  </si>
+  <si>
+    <t>2794.55</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>1781</t>
+  </si>
+  <si>
+    <t>-0.71</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>1.美国禁止采购华为，中兴，海康，大华等设备。</t>
   </si>
   <si>
     <t>海康威视</t>
@@ -970,12 +988,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -984,46 +1002,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1038,21 +1018,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1065,32 +1039,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1105,8 +1069,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1121,7 +1099,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1144,7 +1162,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,25 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,49 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,55 +1246,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,25 +1270,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,6 +1353,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1362,6 +1400,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1381,42 +1434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,10 +1461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1455,133 +1473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1945,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2665,14 +2683,35 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:4">
       <c r="A63" s="8">
         <v>43685</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="8">
         <v>43686</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -3582,12 +3621,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3600,17 +3639,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3620,28 +3659,28 @@
         <v>27.01</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>53.25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2">
         <v>32.06</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3655,7 +3694,7 @@
         <v>0.55</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>-1.21</v>
@@ -3664,7 +3703,7 @@
         <v>0.81</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H3">
         <v>-1.17</v>
@@ -3673,7 +3712,7 @@
         <v>1.48</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3687,7 +3726,7 @@
         <v>0.44</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E4">
         <v>1.9</v>
@@ -3696,7 +3735,7 @@
         <v>0.91</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H4">
         <v>0.44</v>
@@ -3705,7 +3744,7 @@
         <v>1.37</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3729,7 +3768,7 @@
         <v>0.76</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E7">
         <v>2.01</v>
@@ -3738,7 +3777,7 @@
         <v>1.07</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <v>2.08</v>
@@ -3747,7 +3786,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3761,7 +3800,7 @@
         <v>0.41</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E8">
         <v>-1.03</v>
@@ -3770,7 +3809,7 @@
         <v>0.47</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H8">
         <v>0.18</v>
@@ -3779,7 +3818,7 @@
         <v>1.79</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3872,7 +3911,7 @@
         <v>2.28</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E14">
         <v>1.8</v>
@@ -3881,7 +3920,7 @@
         <v>1.01</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H14">
         <v>0.19</v>
@@ -4186,9 +4225,100 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>43685</v>
+      </c>
+      <c r="B31">
+        <v>0.59</v>
+      </c>
+      <c r="C31">
+        <v>0.56</v>
+      </c>
+      <c r="E31">
+        <v>0.12</v>
+      </c>
+      <c r="F31">
+        <v>0.63</v>
+      </c>
+      <c r="H31">
+        <v>0.23</v>
+      </c>
+      <c r="I31">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>43686</v>
+      </c>
+      <c r="B32">
+        <v>-2.8</v>
+      </c>
+      <c r="C32">
+        <v>0.9</v>
+      </c>
+      <c r="E32">
+        <v>0.26</v>
+      </c>
+      <c r="F32">
+        <v>0.75</v>
+      </c>
+      <c r="H32">
+        <v>-7.74</v>
+      </c>
+      <c r="I32">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5">
+        <v>43687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5">
+        <v>43688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5">
+        <v>43692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5">
+        <v>43693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5">
+        <v>43694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5">
+        <v>43696</v>
       </c>
     </row>
   </sheetData>
@@ -4252,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3">
         <v>1</v>
@@ -4356,10 +4486,10 @@
         <v>43495</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2">
         <v>35.5</v>
@@ -4377,7 +4507,7 @@
         <v>-1.33</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J2" s="3">
         <v>1.13</v>
@@ -4460,10 +4590,10 @@
         <v>43497</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2">
         <v>18.72</v>
@@ -4564,10 +4694,10 @@
         <v>43497</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4668,10 +4798,10 @@
         <v>43630</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2">
         <v>10.35</v>
@@ -4695,46 +4825,46 @@
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -4742,67 +4872,67 @@
         <v>43634</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2">
         <v>35.29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -4810,64 +4940,64 @@
         <v>43635</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D7" s="2">
         <v>36.66</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4875,61 +5005,61 @@
         <v>43637</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2">
         <v>54.96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4937,58 +5067,58 @@
         <v>43637</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2">
         <v>9.95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4996,58 +5126,58 @@
         <v>43637</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D10" s="2">
         <v>19.02</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5055,49 +5185,49 @@
         <v>43642</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D11" s="2">
         <v>2.14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -5105,46 +5235,46 @@
         <v>43643</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D12" s="2">
         <v>16.29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5152,43 +5282,43 @@
         <v>43644</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D13" s="2">
         <v>2.72</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5196,28 +5326,28 @@
         <v>43651</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D14" s="2">
         <v>3.46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5225,41 +5355,41 @@
         <v>43651</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D15" s="2">
         <v>14.85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D17" s="2">
         <v>14.68</v>
@@ -5267,7 +5397,7 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D18" s="2">
         <v>4.43</v>
@@ -5275,7 +5405,7 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D19" s="2">
         <v>7.35</v>
@@ -5283,7 +5413,7 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2">
         <v>20.54</v>
